--- a/证券行业估值.xlsx
+++ b/证券行业估值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/development/Documents/code/FinModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7CD0E-7099-6D48-A000-E9A254072E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB76ED-DEC2-C147-9E92-BD647AAC40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{A3E206E8-B5C9-0E47-978A-73C5AB214B88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>总股本（亿）</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>海通证券</t>
+  </si>
+  <si>
+    <t>中国银河</t>
   </si>
 </sst>
 </file>
@@ -556,6 +559,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>179479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10D9B71-42C6-1FE3-607C-44F00C7B0258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="7772400" cy="4243479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -859,7 +906,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,18 +988,18 @@
         <v>20.51</v>
       </c>
       <c r="D2" s="5">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D11" si="0">B2*C2</f>
         <v>3039.7871000000005</v>
       </c>
       <c r="E2" s="5">
         <v>165.68</v>
       </c>
       <c r="F2" s="5">
-        <f>E2 * 4 / 3</f>
+        <f t="shared" ref="F2:F11" si="1">E2 * 4 / 3</f>
         <v>220.90666666666667</v>
       </c>
       <c r="G2" s="5">
-        <f>D2/F2</f>
+        <f t="shared" ref="G2:G11" si="2">D2/F2</f>
         <v>13.760504134476101</v>
       </c>
       <c r="I2">
@@ -962,27 +1009,27 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="5">
-        <f>F2*(1+J2)^3</f>
+        <f t="shared" ref="K2:K11" si="3">F2*(1+J2)^3</f>
         <v>294.02677333333344</v>
       </c>
       <c r="L2" s="5">
-        <f>I2*K2/2</f>
+        <f t="shared" ref="L2:L11" si="4">I2*K2/2</f>
         <v>2940.2677333333345</v>
       </c>
       <c r="M2" s="7">
-        <f>L2/B2</f>
+        <f t="shared" ref="M2:M11" si="5">L2/B2</f>
         <v>19.838524615972837</v>
       </c>
       <c r="N2" s="5">
-        <f>F2</f>
+        <f t="shared" ref="N2:N11" si="6">F2</f>
         <v>220.90666666666667</v>
       </c>
       <c r="O2" s="5">
-        <f>I2*N2/2</f>
+        <f t="shared" ref="O2:O11" si="7">I2*N2/2</f>
         <v>2209.0666666666666</v>
       </c>
       <c r="P2" s="5">
-        <f>O2/B2</f>
+        <f t="shared" ref="P2:P11" si="8">O2/B2</f>
         <v>14.904977172030677</v>
       </c>
     </row>
@@ -997,18 +1044,18 @@
         <v>20</v>
       </c>
       <c r="D3" s="5">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2642</v>
       </c>
       <c r="E3" s="5">
         <v>65.94</v>
       </c>
       <c r="F3" s="5">
-        <f>E3 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>87.92</v>
       </c>
       <c r="G3" s="5">
-        <f>D3/F3</f>
+        <f t="shared" si="2"/>
         <v>30.050045495905369</v>
       </c>
       <c r="H3" s="4"/>
@@ -1019,27 +1066,27 @@
         <v>0.2</v>
       </c>
       <c r="K3" s="5">
-        <f>F3*(1+J3)^3</f>
+        <f t="shared" si="3"/>
         <v>151.92576</v>
       </c>
       <c r="L3" s="5">
-        <f>I3*K3/2</f>
+        <f t="shared" si="4"/>
         <v>1899.0719999999999</v>
       </c>
       <c r="M3" s="7">
-        <f>L3/B3</f>
+        <f t="shared" si="5"/>
         <v>14.376018168054504</v>
       </c>
       <c r="N3" s="5">
-        <f>F3</f>
+        <f t="shared" si="6"/>
         <v>87.92</v>
       </c>
       <c r="O3" s="5">
-        <f>I3*N3/2</f>
+        <f t="shared" si="7"/>
         <v>1099</v>
       </c>
       <c r="P3" s="5">
-        <f>O3/B3</f>
+        <f t="shared" si="8"/>
         <v>8.3194549583648758</v>
       </c>
     </row>
@@ -1054,18 +1101,18 @@
         <v>25.65</v>
       </c>
       <c r="D4" s="5">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>1989.6704999999997</v>
       </c>
       <c r="E4" s="5">
         <v>64.37</v>
       </c>
       <c r="F4" s="5">
-        <f>E4 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>85.826666666666668</v>
       </c>
       <c r="G4" s="5">
-        <f>D4/F4</f>
+        <f t="shared" si="2"/>
         <v>23.182427761379522</v>
       </c>
       <c r="H4" s="3"/>
@@ -1076,27 +1123,27 @@
         <v>0.1</v>
       </c>
       <c r="K4" s="5">
-        <f>F4*(1+J4)^3</f>
+        <f t="shared" si="3"/>
         <v>114.23529333333337</v>
       </c>
       <c r="L4" s="5">
-        <f>I4*K4/2</f>
+        <f t="shared" si="4"/>
         <v>1427.9411666666672</v>
       </c>
       <c r="M4" s="7">
-        <f>L4/B4</f>
+        <f t="shared" si="5"/>
         <v>18.408420351510472</v>
       </c>
       <c r="N4" s="5">
-        <f>F4</f>
+        <f t="shared" si="6"/>
         <v>85.826666666666668</v>
       </c>
       <c r="O4" s="5">
-        <f>I4*N4/2</f>
+        <f t="shared" si="7"/>
         <v>1072.8333333333333</v>
       </c>
       <c r="P4" s="5">
-        <f>O4/B4</f>
+        <f t="shared" si="8"/>
         <v>13.830518671307637</v>
       </c>
     </row>
@@ -1111,18 +1158,18 @@
         <v>40.200000000000003</v>
       </c>
       <c r="D5" s="5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>1940.4540000000002</v>
       </c>
       <c r="E5" s="5">
         <v>60.12</v>
       </c>
       <c r="F5" s="5">
-        <f>E5 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>80.16</v>
       </c>
       <c r="G5" s="5">
-        <f>D5/F5</f>
+        <f t="shared" si="2"/>
         <v>24.207260479041921</v>
       </c>
       <c r="I5">
@@ -1132,27 +1179,27 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="5">
-        <f>F5*(1+J5)^3</f>
+        <f t="shared" si="3"/>
         <v>106.69296000000003</v>
       </c>
       <c r="L5" s="5">
-        <f>I5*K5/2</f>
+        <f t="shared" si="4"/>
         <v>1333.6620000000003</v>
       </c>
       <c r="M5" s="7">
-        <f>L5/B5</f>
+        <f t="shared" si="5"/>
         <v>27.629210689869488</v>
       </c>
       <c r="N5" s="5">
-        <f>F5</f>
+        <f t="shared" si="6"/>
         <v>80.16</v>
       </c>
       <c r="O5" s="5">
-        <f>I5*N5/2</f>
+        <f t="shared" si="7"/>
         <v>1002</v>
       </c>
       <c r="P5" s="5">
-        <f>O5/B5</f>
+        <f t="shared" si="8"/>
         <v>20.758234928527035</v>
       </c>
     </row>
@@ -1167,18 +1214,18 @@
         <v>13.26</v>
       </c>
       <c r="D6" s="5">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>1203.4775999999999</v>
       </c>
       <c r="E6" s="5">
         <v>78.209999999999994</v>
       </c>
       <c r="F6" s="5">
-        <f>E6 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>104.27999999999999</v>
       </c>
       <c r="G6" s="5">
-        <f>D6/F6</f>
+        <f t="shared" si="2"/>
         <v>11.540828538550059</v>
       </c>
       <c r="I6">
@@ -1188,27 +1235,27 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="5">
-        <f>F6*(1+J6)^3</f>
+        <f t="shared" si="3"/>
         <v>138.79668000000004</v>
       </c>
       <c r="L6" s="5">
-        <f>I6*K6/2</f>
+        <f t="shared" si="4"/>
         <v>1040.9751000000003</v>
       </c>
       <c r="M6" s="7">
-        <f>L6/B6</f>
+        <f t="shared" si="5"/>
         <v>11.469536139268403</v>
       </c>
       <c r="N6" s="5">
-        <f>F6</f>
+        <f t="shared" si="6"/>
         <v>104.27999999999999</v>
       </c>
       <c r="O6" s="5">
-        <f>I6*N6/2</f>
+        <f t="shared" si="7"/>
         <v>782.09999999999991</v>
       </c>
       <c r="P6" s="5">
-        <f>O6/B6</f>
+        <f t="shared" si="8"/>
         <v>8.6172322609078869</v>
       </c>
     </row>
@@ -1223,18 +1270,18 @@
         <v>9.1</v>
       </c>
       <c r="D7" s="5">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>1188.4599999999998</v>
       </c>
       <c r="E7" s="5">
         <v>60.5</v>
       </c>
       <c r="F7" s="5">
-        <f>E7 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>80.666666666666671</v>
       </c>
       <c r="G7" s="5">
-        <f>D7/F7</f>
+        <f t="shared" si="2"/>
         <v>14.732975206611567</v>
       </c>
       <c r="I7">
@@ -1244,27 +1291,27 @@
         <v>0.08</v>
       </c>
       <c r="K7" s="5">
-        <f>F7*(1+J7)^3</f>
+        <f t="shared" si="3"/>
         <v>101.61676800000002</v>
       </c>
       <c r="L7" s="5">
-        <f>I7*K7/2</f>
+        <f t="shared" si="4"/>
         <v>1016.1676800000002</v>
       </c>
       <c r="M7" s="7">
-        <f>L7/B7</f>
+        <f t="shared" si="5"/>
         <v>7.7807632465543666</v>
       </c>
       <c r="N7" s="5">
-        <f>F7</f>
+        <f t="shared" si="6"/>
         <v>80.666666666666671</v>
       </c>
       <c r="O7" s="5">
-        <f>I7*N7/2</f>
+        <f t="shared" si="7"/>
         <v>806.66666666666674</v>
       </c>
       <c r="P7" s="5">
-        <f>O7/B7</f>
+        <f t="shared" si="8"/>
         <v>6.1766207248596228</v>
       </c>
     </row>
@@ -1279,18 +1326,18 @@
         <v>104.1</v>
       </c>
       <c r="D8" s="5">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>560.05799999999999</v>
       </c>
       <c r="E8" s="5">
         <v>8.82</v>
       </c>
       <c r="F8" s="5">
-        <f>E8 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>11.76</v>
       </c>
       <c r="G8" s="5">
-        <f>D8/F8</f>
+        <f t="shared" si="2"/>
         <v>47.623979591836736</v>
       </c>
       <c r="I8">
@@ -1300,27 +1347,27 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="5">
-        <f>F8*(1+J8)^3</f>
+        <f t="shared" si="3"/>
         <v>15.652560000000005</v>
       </c>
       <c r="L8" s="5">
-        <f>I8*K8/2</f>
+        <f t="shared" si="4"/>
         <v>234.78840000000008</v>
       </c>
       <c r="M8" s="7">
-        <f>L8/B8</f>
+        <f t="shared" si="5"/>
         <v>43.640966542750945</v>
       </c>
       <c r="N8" s="5">
-        <f>F8</f>
+        <f t="shared" si="6"/>
         <v>11.76</v>
       </c>
       <c r="O8" s="5">
-        <f>I8*N8/2</f>
+        <f t="shared" si="7"/>
         <v>176.4</v>
       </c>
       <c r="P8" s="5">
-        <f>O8/B8</f>
+        <f t="shared" si="8"/>
         <v>32.788104089219331</v>
       </c>
     </row>
@@ -1335,18 +1382,18 @@
         <v>6.83</v>
       </c>
       <c r="D9" s="5">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>438.82749999999999</v>
       </c>
       <c r="E9" s="5">
         <v>21.41</v>
       </c>
       <c r="F9" s="5">
-        <f>E9 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>28.546666666666667</v>
       </c>
       <c r="G9" s="5">
-        <f>D9/F9</f>
+        <f t="shared" si="2"/>
         <v>15.37228514712751</v>
       </c>
       <c r="I9">
@@ -1356,27 +1403,27 @@
         <v>0.1</v>
       </c>
       <c r="K9" s="5">
-        <f>F9*(1+J9)^3</f>
+        <f t="shared" si="3"/>
         <v>37.995613333333345</v>
       </c>
       <c r="L9" s="5">
-        <f>I9*K9/2</f>
+        <f t="shared" si="4"/>
         <v>379.95613333333347</v>
       </c>
       <c r="M9" s="7">
-        <f>L9/B9</f>
+        <f t="shared" si="5"/>
         <v>5.9137141374837894</v>
       </c>
       <c r="N9" s="5">
-        <f>F9</f>
+        <f t="shared" si="6"/>
         <v>28.546666666666667</v>
       </c>
       <c r="O9" s="5">
-        <f>I9*N9/2</f>
+        <f t="shared" si="7"/>
         <v>285.4666666666667</v>
       </c>
       <c r="P9" s="5">
-        <f>O9/B9</f>
+        <f t="shared" si="8"/>
         <v>4.4430609597924775</v>
       </c>
     </row>
@@ -1391,18 +1438,18 @@
         <v>7.27</v>
       </c>
       <c r="D10" s="6">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>164.37469999999999</v>
       </c>
       <c r="E10" s="6">
         <v>1.89</v>
       </c>
       <c r="F10" s="6">
-        <f>E10 * 4 / 3</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="G10" s="6">
-        <f>D10/F10</f>
+        <f t="shared" si="2"/>
         <v>65.228055555555557</v>
       </c>
       <c r="I10" s="2">
@@ -1412,28 +1459,84 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="6">
-        <f>F10*(1+J10)^3</f>
+        <f t="shared" si="3"/>
         <v>3.3541200000000009</v>
       </c>
       <c r="L10" s="6">
-        <f>I10*K10/2</f>
+        <f t="shared" si="4"/>
         <v>41.926500000000011</v>
       </c>
       <c r="M10" s="8">
-        <f>L10/B10</f>
+        <f t="shared" si="5"/>
         <v>1.8543343653250779</v>
       </c>
       <c r="N10" s="6">
-        <f>F10</f>
+        <f t="shared" si="6"/>
         <v>2.52</v>
       </c>
       <c r="O10" s="6">
-        <f>I10*N10/2</f>
+        <f t="shared" si="7"/>
         <v>31.5</v>
       </c>
       <c r="P10" s="6">
-        <f>O10/B10</f>
+        <f t="shared" si="8"/>
         <v>1.3931888544891642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>101.4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10.06</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1020.0840000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>85.866666666666674</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>11.879860248447205</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>114.28853333333338</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>857.16400000000033</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="5"/>
+        <v>8.45329388560158</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="6"/>
+        <v>85.866666666666674</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="7"/>
+        <v>644</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="8"/>
+        <v>6.3510848126232737</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1462,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659804DE-9473-8042-978B-9217CA3C1883}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
